--- a/composition/Body composition.xlsx
+++ b/composition/Body composition.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\lucent\health-data\composition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734A8B74-D364-4413-A148-DD99CECDF38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3662EBB-87DA-4795-80C0-360D85D7A317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="4620" windowWidth="20745" windowHeight="15735" xr2:uid="{4DBE4966-BAAF-47EE-AAFB-3004D2001ED9}"/>
+    <workbookView xWindow="28290" yWindow="300" windowWidth="25815" windowHeight="20505" xr2:uid="{4DBE4966-BAAF-47EE-AAFB-3004D2001ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Dry Mass</t>
   </si>
   <si>
     <t>Fat Mass</t>
@@ -79,24 +75,6 @@
   </si>
   <si>
     <t>Left</t>
-  </si>
-  <si>
-    <t>Leg</t>
-  </si>
-  <si>
-    <t>Arm</t>
-  </si>
-  <si>
-    <t>Segmental Arm</t>
-  </si>
-  <si>
-    <t>Segmental Leg</t>
-  </si>
-  <si>
-    <t>Segmental</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Arm Fat</t>
@@ -177,9 +155,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,7 +195,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -323,7 +301,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -473,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E56A793-0996-44EC-93ED-6A0CEAFE63CB}">
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,28 +464,28 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="T1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="U1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="W1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -515,67 +493,67 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" t="s">
         <v>13</v>
-      </c>
-      <c r="S2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -620,7 +598,7 @@
         <v>55.8</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G32" si="0">SUM(D5:F5)</f>
+        <f t="shared" ref="G5:G35" si="0">SUM(D5:F5)</f>
         <v>195.60000000000002</v>
       </c>
       <c r="H5">
@@ -2167,7 +2145,8 @@
         <v>53.6</v>
       </c>
       <c r="G33">
-        <v>197</v>
+        <f t="shared" si="0"/>
+        <v>197.1</v>
       </c>
       <c r="H33">
         <v>81.599999999999994</v>
@@ -2236,7 +2215,8 @@
         <v>60.2</v>
       </c>
       <c r="G34">
-        <v>215.5</v>
+        <f t="shared" si="0"/>
+        <v>215.60000000000002</v>
       </c>
       <c r="H34">
         <v>88.4</v>
@@ -2304,7 +2284,8 @@
         <v>63.7</v>
       </c>
       <c r="G35">
-        <v>214</v>
+        <f t="shared" si="0"/>
+        <v>214.10000000000002</v>
       </c>
       <c r="H35">
         <v>85.5</v>
@@ -2653,6 +2634,26 @@
       </c>
       <c r="J50">
         <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45562</v>
+      </c>
+      <c r="F51">
+        <v>83.1</v>
+      </c>
+      <c r="G51">
+        <v>227.5</v>
+      </c>
+      <c r="H51">
+        <v>82.2</v>
+      </c>
+      <c r="I51">
+        <v>31.2</v>
+      </c>
+      <c r="J51">
+        <v>36.5</v>
       </c>
     </row>
   </sheetData>
@@ -2661,448 +2662,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CFEE18-4EA1-4000-8D9E-E88E53B9EA93}">
-  <dimension ref="A1:V8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42990</v>
-      </c>
-      <c r="D3">
-        <v>108</v>
-      </c>
-      <c r="E3">
-        <v>40.1</v>
-      </c>
-      <c r="F3">
-        <v>56.9</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G8" si="0">SUM(D3:F3)</f>
-        <v>205</v>
-      </c>
-      <c r="H3">
-        <v>84.4</v>
-      </c>
-      <c r="I3">
-        <v>27.8</v>
-      </c>
-      <c r="J3">
-        <v>27.7</v>
-      </c>
-      <c r="K3">
-        <v>8.07</v>
-      </c>
-      <c r="L3">
-        <v>8.14</v>
-      </c>
-      <c r="M3">
-        <v>63.9</v>
-      </c>
-      <c r="N3">
-        <v>22.97</v>
-      </c>
-      <c r="O3">
-        <v>23.37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43009</v>
-      </c>
-      <c r="D4">
-        <v>104.7</v>
-      </c>
-      <c r="E4">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="F4">
-        <v>54.2</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>198.10000000000002</v>
-      </c>
-      <c r="H4">
-        <v>82.2</v>
-      </c>
-      <c r="I4">
-        <v>26.9</v>
-      </c>
-      <c r="J4">
-        <v>27.3</v>
-      </c>
-      <c r="K4">
-        <v>7.87</v>
-      </c>
-      <c r="L4">
-        <v>7.78</v>
-      </c>
-      <c r="M4">
-        <v>62.5</v>
-      </c>
-      <c r="N4">
-        <v>22.26</v>
-      </c>
-      <c r="O4">
-        <v>22.77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43026</v>
-      </c>
-      <c r="D5">
-        <v>105.2</v>
-      </c>
-      <c r="E5">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="F5">
-        <v>50.3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>194.7</v>
-      </c>
-      <c r="H5">
-        <v>82.2</v>
-      </c>
-      <c r="I5">
-        <v>26.4</v>
-      </c>
-      <c r="J5">
-        <v>25.9</v>
-      </c>
-      <c r="K5">
-        <v>7.94</v>
-      </c>
-      <c r="L5">
-        <v>7.8</v>
-      </c>
-      <c r="M5">
-        <v>62.5</v>
-      </c>
-      <c r="N5">
-        <v>22.31</v>
-      </c>
-      <c r="O5">
-        <v>22.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43069</v>
-      </c>
-      <c r="B6">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="C6">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="D6">
-        <f>SUM(B6:C6)</f>
-        <v>105.39999999999999</v>
-      </c>
-      <c r="E6">
-        <v>39.5</v>
-      </c>
-      <c r="F6">
-        <v>49</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>193.89999999999998</v>
-      </c>
-      <c r="H6">
-        <v>82.5</v>
-      </c>
-      <c r="I6">
-        <v>26.6</v>
-      </c>
-      <c r="J6">
-        <v>25.2</v>
-      </c>
-      <c r="K6">
-        <v>7.87</v>
-      </c>
-      <c r="L6">
-        <v>7.63</v>
-      </c>
-      <c r="M6">
-        <v>61.8</v>
-      </c>
-      <c r="N6">
-        <v>22.42</v>
-      </c>
-      <c r="O6">
-        <v>22.73</v>
-      </c>
-      <c r="P6">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="Q6">
-        <v>9</v>
-      </c>
-      <c r="R6">
-        <v>2.9</v>
-      </c>
-      <c r="S6">
-        <v>3.1</v>
-      </c>
-      <c r="T6">
-        <v>26</v>
-      </c>
-      <c r="U6">
-        <v>7.1</v>
-      </c>
-      <c r="V6">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43106</v>
-      </c>
-      <c r="B7">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="C7">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="D7">
-        <f>SUM(B7:C7)</f>
-        <v>105.2</v>
-      </c>
-      <c r="E7">
-        <v>39.5</v>
-      </c>
-      <c r="F7">
-        <v>49.9</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>194.6</v>
-      </c>
-      <c r="H7">
-        <v>82</v>
-      </c>
-      <c r="I7">
-        <v>26.7</v>
-      </c>
-      <c r="J7">
-        <v>25.7</v>
-      </c>
-      <c r="K7">
-        <v>7.89</v>
-      </c>
-      <c r="L7">
-        <v>7.56</v>
-      </c>
-      <c r="M7">
-        <v>61.6</v>
-      </c>
-      <c r="N7">
-        <v>22.55</v>
-      </c>
-      <c r="O7">
-        <v>22.8</v>
-      </c>
-      <c r="P7">
-        <v>0.37</v>
-      </c>
-      <c r="Q7">
-        <v>9</v>
-      </c>
-      <c r="R7">
-        <v>3.1</v>
-      </c>
-      <c r="S7">
-        <v>3.3</v>
-      </c>
-      <c r="T7">
-        <v>26.5</v>
-      </c>
-      <c r="U7">
-        <v>7.1</v>
-      </c>
-      <c r="V7">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43126</v>
-      </c>
-      <c r="B8">
-        <v>66.8</v>
-      </c>
-      <c r="C8">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="D8">
-        <f>SUM(B8:C8)</f>
-        <v>105.6</v>
-      </c>
-      <c r="E8">
-        <v>39.9</v>
-      </c>
-      <c r="F8">
-        <v>47.9</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>193.4</v>
-      </c>
-      <c r="H8">
-        <v>82.7</v>
-      </c>
-      <c r="I8">
-        <v>26.5</v>
-      </c>
-      <c r="J8">
-        <v>24.8</v>
-      </c>
-      <c r="K8">
-        <v>7.94</v>
-      </c>
-      <c r="L8">
-        <v>7.8</v>
-      </c>
-      <c r="M8">
-        <v>62.4</v>
-      </c>
-      <c r="N8">
-        <v>21.87</v>
-      </c>
-      <c r="O8">
-        <v>22.22</v>
-      </c>
-      <c r="P8">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="Q8">
-        <v>9</v>
-      </c>
-      <c r="R8">
-        <v>2.9</v>
-      </c>
-      <c r="S8">
-        <v>3.1</v>
-      </c>
-      <c r="T8">
-        <v>26</v>
-      </c>
-      <c r="U8">
-        <v>6.6</v>
-      </c>
-      <c r="V8">
-        <v>6.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>